--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/18. UPGRADE 4G/20 TB TG102LE-4G UPGR 140324.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/18. UPGRADE 4G/20 TB TG102LE-4G UPGR 140324.xlsx
@@ -456,7 +456,7 @@
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A14" sqref="A14:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
